--- a/Document/TestReport/LowHope_UnitTest_Report.xlsx
+++ b/Document/TestReport/LowHope_UnitTest_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Unit_Test" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -80,19 +79,19 @@
     <t>LowHope_UnitTest_Report</t>
   </si>
   <si>
-    <t>MANAGERandAdmin</t>
-  </si>
-  <si>
     <t>TungNT</t>
   </si>
   <si>
     <t>MANAFER and ADMIN</t>
+  </si>
+  <si>
+    <t>MANAGER and Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -504,53 +503,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E42455F5-364A-4B81-B04F-281181F87F3E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12068175" y="1104900"/>
-          <a:ext cx="5334000" cy="1228725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,6 +581,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -664,6 +633,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -842,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -876,7 +862,7 @@
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -999,10 +985,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="20">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D12" s="20">
         <v>2</v>
@@ -1014,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="21">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1023,7 +1009,8 @@
         <v>18</v>
       </c>
       <c r="C13" s="25">
-        <v>114</v>
+        <f>C11+C12</f>
+        <v>91</v>
       </c>
       <c r="D13" s="25">
         <f>SUM(D9:D12)</f>
@@ -1036,7 +1023,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="26">
         <f>SUM(G9:G12)</f>
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1060,7 +1047,7 @@
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1183,10 +1170,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="20">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D28" s="20">
         <v>0</v>
@@ -1198,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="21">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1207,7 +1194,8 @@
         <v>18</v>
       </c>
       <c r="C29" s="25">
-        <v>121</v>
+        <f>C27+C28</f>
+        <v>98</v>
       </c>
       <c r="D29" s="25">
         <v>0</v>
@@ -1219,7 +1207,7 @@
       <c r="F29" s="25"/>
       <c r="G29" s="26">
         <f>SUM(G25:G28)</f>
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1241,18 +1229,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/TestReport/LowHope_UnitTest_Report.xlsx
+++ b/Document/TestReport/LowHope_UnitTest_Report.xlsx
@@ -470,6 +470,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -477,12 +483,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -853,14 +853,14 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
@@ -870,14 +870,14 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
     </row>
@@ -885,14 +885,14 @@
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
@@ -900,12 +900,12 @@
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="9"/>
@@ -965,10 +965,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="22">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="20">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="20">
         <v>0</v>
@@ -1010,11 +1010,11 @@
       </c>
       <c r="C13" s="25">
         <f>C11+C12</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="25">
         <f>SUM(D9:D12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="25">
         <f>SUM(E9:E12)</f>
@@ -1038,14 +1038,14 @@
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1055,14 +1055,14 @@
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
     </row>
@@ -1070,14 +1070,14 @@
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
     </row>
@@ -1085,12 +1085,12 @@
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
@@ -1212,12 +1212,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B19:C19"/>
@@ -1226,6 +1220,12 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
